--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H2">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I2">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J2">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.96998</v>
+        <v>8.46616</v>
       </c>
       <c r="N2">
-        <v>17.93996</v>
+        <v>16.93232</v>
       </c>
       <c r="O2">
-        <v>0.207419632623401</v>
+        <v>0.2709890975948716</v>
       </c>
       <c r="P2">
-        <v>0.1517829129945491</v>
+        <v>0.2057226383218336</v>
       </c>
       <c r="Q2">
-        <v>451.6382911754499</v>
+        <v>635.6389202889601</v>
       </c>
       <c r="R2">
-        <v>1806.5531647018</v>
+        <v>2542.55568115584</v>
       </c>
       <c r="S2">
-        <v>0.0264580411216585</v>
+        <v>0.04016453747187196</v>
       </c>
       <c r="T2">
-        <v>0.01428729828981951</v>
+        <v>0.02256634312727266</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H3">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I3">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J3">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>10.373874</v>
       </c>
       <c r="O3">
-        <v>0.07996097850688078</v>
+        <v>0.1106840548656022</v>
       </c>
       <c r="P3">
-        <v>0.08776924891462495</v>
+        <v>0.1260394753287366</v>
       </c>
       <c r="Q3">
-        <v>174.108107495945</v>
+        <v>259.623334489848</v>
       </c>
       <c r="R3">
-        <v>1044.64864497567</v>
+        <v>1557.740006939088</v>
       </c>
       <c r="S3">
-        <v>0.01019966543525939</v>
+        <v>0.0164049915979806</v>
       </c>
       <c r="T3">
-        <v>0.00826170360797923</v>
+        <v>0.01382565414798992</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H4">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I4">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J4">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.167099333333335</v>
+        <v>5.189183666666668</v>
       </c>
       <c r="N4">
-        <v>27.501298</v>
+        <v>15.567551</v>
       </c>
       <c r="O4">
-        <v>0.2119777720733184</v>
+        <v>0.1660979947324462</v>
       </c>
       <c r="P4">
-        <v>0.2326776158682164</v>
+        <v>0.1891411019830537</v>
       </c>
       <c r="Q4">
-        <v>461.5632451735983</v>
+        <v>389.6036813692521</v>
       </c>
       <c r="R4">
-        <v>2769.37947104159</v>
+        <v>2337.622088215513</v>
       </c>
       <c r="S4">
-        <v>0.02703946844114052</v>
+        <v>0.02461814586875978</v>
       </c>
       <c r="T4">
-        <v>0.02190190211590308</v>
+        <v>0.02074746387484508</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H5">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I5">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J5">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.5718675</v>
+        <v>2.952392</v>
       </c>
       <c r="N5">
-        <v>5.143735</v>
+        <v>5.904783999999999</v>
       </c>
       <c r="O5">
-        <v>0.05947123761770536</v>
+        <v>0.09450164464483519</v>
       </c>
       <c r="P5">
-        <v>0.04351910940559606</v>
+        <v>0.07174136463287666</v>
       </c>
       <c r="Q5">
-        <v>129.4934707579812</v>
+        <v>221.665461454752</v>
       </c>
       <c r="R5">
-        <v>517.973883031925</v>
+        <v>886.661845819008</v>
       </c>
       <c r="S5">
-        <v>0.007586034313839837</v>
+        <v>0.01400652233310674</v>
       </c>
       <c r="T5">
-        <v>0.004096445937938811</v>
+        <v>0.007869528914905317</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H6">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I6">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J6">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.499784666666668</v>
+        <v>1.999823</v>
       </c>
       <c r="N6">
-        <v>19.499354</v>
+        <v>5.999469</v>
       </c>
       <c r="O6">
-        <v>0.1502994374225154</v>
+        <v>0.06401133809418542</v>
       </c>
       <c r="P6">
-        <v>0.1649763294696261</v>
+        <v>0.07289175914523545</v>
       </c>
       <c r="Q6">
-        <v>327.2640117215117</v>
+        <v>150.146622847788</v>
       </c>
       <c r="R6">
-        <v>1963.58407032907</v>
+        <v>900.8797370867281</v>
       </c>
       <c r="S6">
-        <v>0.01917190116283338</v>
+        <v>0.009487414107530616</v>
       </c>
       <c r="T6">
-        <v>0.01552919220872205</v>
+        <v>0.007995719194737369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>50.34997749999999</v>
+        <v>75.07995600000001</v>
       </c>
       <c r="H7">
-        <v>100.699955</v>
+        <v>150.159912</v>
       </c>
       <c r="I7">
-        <v>0.127558036753911</v>
+        <v>0.1482145880714283</v>
       </c>
       <c r="J7">
-        <v>0.09412982006961877</v>
+        <v>0.1096930474514416</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.57887933333333</v>
+        <v>9.176183</v>
       </c>
       <c r="N7">
-        <v>37.736638</v>
+        <v>27.528549</v>
       </c>
       <c r="O7">
-        <v>0.2908709417561791</v>
+        <v>0.2937158700680593</v>
       </c>
       <c r="P7">
-        <v>0.3192747833473873</v>
+        <v>0.334463660588264</v>
       </c>
       <c r="Q7">
-        <v>633.3462914085483</v>
+        <v>688.9474158879481</v>
       </c>
       <c r="R7">
-        <v>3800.07774845129</v>
+        <v>4133.684495327689</v>
       </c>
       <c r="S7">
-        <v>0.0371029262791794</v>
+        <v>0.04353297669217856</v>
       </c>
       <c r="T7">
-        <v>0.03005327790925609</v>
+        <v>0.03668833819169132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>238.295841</v>
       </c>
       <c r="I8">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J8">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.96998</v>
+        <v>8.46616</v>
       </c>
       <c r="N8">
-        <v>17.93996</v>
+        <v>16.93232</v>
       </c>
       <c r="O8">
-        <v>0.207419632623401</v>
+        <v>0.2709890975948716</v>
       </c>
       <c r="P8">
-        <v>0.1517829129945491</v>
+        <v>0.2057226383218336</v>
       </c>
       <c r="Q8">
-        <v>712.50297595106</v>
+        <v>672.4835724135199</v>
       </c>
       <c r="R8">
-        <v>4275.01785570636</v>
+        <v>4034.90143448112</v>
       </c>
       <c r="S8">
-        <v>0.0417401123982508</v>
+        <v>0.04249266490972966</v>
       </c>
       <c r="T8">
-        <v>0.03380938712028622</v>
+        <v>0.03581159340189284</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>238.295841</v>
       </c>
       <c r="I9">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J9">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>10.373874</v>
       </c>
       <c r="O9">
-        <v>0.07996097850688078</v>
+        <v>0.1106840548656022</v>
       </c>
       <c r="P9">
-        <v>0.08776924891462495</v>
+        <v>0.1260394753287366</v>
       </c>
       <c r="Q9">
         <v>274.672336584226</v>
@@ -1013,10 +1013,10 @@
         <v>2472.051029258034</v>
       </c>
       <c r="S9">
-        <v>0.01609095623272633</v>
+        <v>0.01735590286102778</v>
       </c>
       <c r="T9">
-        <v>0.01955045172916061</v>
+        <v>0.02194058213466718</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>238.295841</v>
       </c>
       <c r="I10">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J10">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.167099333333335</v>
+        <v>5.189183666666668</v>
       </c>
       <c r="N10">
-        <v>27.501298</v>
+        <v>15.567551</v>
       </c>
       <c r="O10">
-        <v>0.2119777720733184</v>
+        <v>0.1660979947324462</v>
       </c>
       <c r="P10">
-        <v>0.2326776158682164</v>
+        <v>0.1891411019830537</v>
       </c>
       <c r="Q10">
-        <v>728.1605483890687</v>
+        <v>412.1869619839323</v>
       </c>
       <c r="R10">
-        <v>6553.444935501619</v>
+        <v>3709.682657855391</v>
       </c>
       <c r="S10">
-        <v>0.04265737008769957</v>
+        <v>0.02604513057900028</v>
       </c>
       <c r="T10">
-        <v>0.05182854534750096</v>
+        <v>0.03292512819715375</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>238.295841</v>
       </c>
       <c r="I11">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J11">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.5718675</v>
+        <v>2.952392</v>
       </c>
       <c r="N11">
-        <v>5.143735</v>
+        <v>5.904783999999999</v>
       </c>
       <c r="O11">
-        <v>0.05947123761770536</v>
+        <v>0.09450164464483519</v>
       </c>
       <c r="P11">
-        <v>0.04351910940559606</v>
+        <v>0.07174136463287666</v>
       </c>
       <c r="Q11">
-        <v>204.2884429510225</v>
+        <v>234.514244867224</v>
       </c>
       <c r="R11">
-        <v>1225.730657706135</v>
+        <v>1407.085469203344</v>
       </c>
       <c r="S11">
-        <v>0.01196770098967983</v>
+        <v>0.01481840692098502</v>
       </c>
       <c r="T11">
-        <v>0.009693808005099534</v>
+        <v>0.01248852630555071</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>238.295841</v>
       </c>
       <c r="I12">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J12">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.499784666666668</v>
+        <v>1.999823</v>
       </c>
       <c r="N12">
-        <v>19.499354</v>
+        <v>5.999469</v>
       </c>
       <c r="O12">
-        <v>0.1502994374225154</v>
+        <v>0.06401133809418542</v>
       </c>
       <c r="P12">
-        <v>0.1649763294696261</v>
+        <v>0.07289175914523545</v>
       </c>
       <c r="Q12">
-        <v>516.2905511540794</v>
+        <v>158.849834545381</v>
       </c>
       <c r="R12">
-        <v>4646.614960386715</v>
+        <v>1429.648510908429</v>
       </c>
       <c r="S12">
-        <v>0.03024552368579348</v>
+        <v>0.01003734970964053</v>
       </c>
       <c r="T12">
-        <v>0.03674819832271096</v>
+        <v>0.0126887836076368</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>238.295841</v>
       </c>
       <c r="I13">
-        <v>0.2012351090893876</v>
+        <v>0.1568058098531187</v>
       </c>
       <c r="J13">
-        <v>0.2227483084443135</v>
+        <v>0.1740770665495208</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>12.57887933333333</v>
+        <v>9.176183</v>
       </c>
       <c r="N13">
-        <v>37.736638</v>
+        <v>27.528549</v>
       </c>
       <c r="O13">
-        <v>0.2908709417561791</v>
+        <v>0.2937158700680593</v>
       </c>
       <c r="P13">
-        <v>0.3192747833473873</v>
+        <v>0.334463660588264</v>
       </c>
       <c r="Q13">
-        <v>999.1648765247286</v>
+        <v>728.8820817183009</v>
       </c>
       <c r="R13">
-        <v>8992.483888722558</v>
+        <v>6559.93873546471</v>
       </c>
       <c r="S13">
-        <v>0.05853344569523761</v>
+        <v>0.04605635487273543</v>
       </c>
       <c r="T13">
-        <v>0.0711179179195552</v>
+        <v>0.05822245290261959</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H14">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I14">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J14">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.96998</v>
+        <v>8.46616</v>
       </c>
       <c r="N14">
-        <v>17.93996</v>
+        <v>16.93232</v>
       </c>
       <c r="O14">
-        <v>0.207419632623401</v>
+        <v>0.2709890975948716</v>
       </c>
       <c r="P14">
-        <v>0.1517829129945491</v>
+        <v>0.2057226383218336</v>
       </c>
       <c r="Q14">
-        <v>747.0823355608666</v>
+        <v>841.3658181140268</v>
       </c>
       <c r="R14">
-        <v>4482.494013365199</v>
+        <v>5048.194908684161</v>
       </c>
       <c r="S14">
-        <v>0.04376585320985409</v>
+        <v>0.05316393922799877</v>
       </c>
       <c r="T14">
-        <v>0.03545023213410388</v>
+        <v>0.04480503586490982</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H15">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I15">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J15">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>10.373874</v>
       </c>
       <c r="O15">
-        <v>0.07996097850688078</v>
+        <v>0.1106840548656022</v>
       </c>
       <c r="P15">
-        <v>0.08776924891462495</v>
+        <v>0.1260394753287366</v>
       </c>
       <c r="Q15">
-        <v>288.0027981011533</v>
+        <v>343.6513911471013</v>
       </c>
       <c r="R15">
-        <v>2592.02518291038</v>
+        <v>3092.862520323912</v>
       </c>
       <c r="S15">
-        <v>0.01687188625101067</v>
+        <v>0.02171452806998358</v>
       </c>
       <c r="T15">
-        <v>0.02049927878489945</v>
+        <v>0.0274505677088583</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H16">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I16">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J16">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.167099333333335</v>
+        <v>5.189183666666668</v>
       </c>
       <c r="N16">
-        <v>27.501298</v>
+        <v>15.567551</v>
       </c>
       <c r="O16">
-        <v>0.2119777720733184</v>
+        <v>0.1660979947324462</v>
       </c>
       <c r="P16">
-        <v>0.2326776158682164</v>
+        <v>0.1891411019830537</v>
       </c>
       <c r="Q16">
-        <v>763.4998049343623</v>
+        <v>515.7003601454433</v>
       </c>
       <c r="R16">
-        <v>6871.49824440926</v>
+        <v>4641.303241308989</v>
       </c>
       <c r="S16">
-        <v>0.04472762746213683</v>
+        <v>0.03258590023075286</v>
       </c>
       <c r="T16">
-        <v>0.05434390032581827</v>
+        <v>0.04119368644602824</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H17">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I17">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J17">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.5718675</v>
+        <v>2.952392</v>
       </c>
       <c r="N17">
-        <v>5.143735</v>
+        <v>5.904783999999999</v>
       </c>
       <c r="O17">
-        <v>0.05947123761770536</v>
+        <v>0.09450164464483519</v>
       </c>
       <c r="P17">
-        <v>0.04351910940559606</v>
+        <v>0.07174136463287666</v>
       </c>
       <c r="Q17">
-        <v>214.2030170249083</v>
+        <v>293.4083114981653</v>
       </c>
       <c r="R17">
-        <v>1285.21810214945</v>
+        <v>1760.449868988992</v>
       </c>
       <c r="S17">
-        <v>0.01254852022860636</v>
+        <v>0.01853978531769181</v>
       </c>
       <c r="T17">
-        <v>0.01016427014253738</v>
+        <v>0.01562479677294935</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H18">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I18">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J18">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.499784666666668</v>
+        <v>1.999823</v>
       </c>
       <c r="N18">
-        <v>19.499354</v>
+        <v>5.999469</v>
       </c>
       <c r="O18">
-        <v>0.1502994374225154</v>
+        <v>0.06401133809418542</v>
       </c>
       <c r="P18">
-        <v>0.1649763294696261</v>
+        <v>0.07289175914523545</v>
       </c>
       <c r="Q18">
-        <v>541.3472838753311</v>
+        <v>198.7421350976414</v>
       </c>
       <c r="R18">
-        <v>4872.125554877981</v>
+        <v>1788.679215878772</v>
       </c>
       <c r="S18">
-        <v>0.03171340645319096</v>
+        <v>0.01255805092730993</v>
       </c>
       <c r="T18">
-        <v>0.03853167040311501</v>
+        <v>0.01587534512195699</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>83.28695666666665</v>
+        <v>99.37986266666667</v>
       </c>
       <c r="H19">
-        <v>249.86087</v>
+        <v>298.139588</v>
       </c>
       <c r="I19">
-        <v>0.2110014980564403</v>
+        <v>0.1961847900887836</v>
       </c>
       <c r="J19">
-        <v>0.2335587809899062</v>
+        <v>0.2177934146207895</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.57887933333333</v>
+        <v>9.176183</v>
       </c>
       <c r="N19">
-        <v>37.736638</v>
+        <v>27.528549</v>
       </c>
       <c r="O19">
-        <v>0.2908709417561791</v>
+        <v>0.2937158700680593</v>
       </c>
       <c r="P19">
-        <v>0.3192747833473873</v>
+        <v>0.334463660588264</v>
       </c>
       <c r="Q19">
-        <v>1047.656577950562</v>
+        <v>911.9278063442014</v>
       </c>
       <c r="R19">
-        <v>9428.90920155506</v>
+        <v>8207.350257097813</v>
       </c>
       <c r="S19">
-        <v>0.06137420445164137</v>
+        <v>0.05762258631504666</v>
       </c>
       <c r="T19">
-        <v>0.07456942919943219</v>
+        <v>0.07284398270608679</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H20">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I20">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J20">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.96998</v>
+        <v>8.46616</v>
       </c>
       <c r="N20">
-        <v>17.93996</v>
+        <v>16.93232</v>
       </c>
       <c r="O20">
-        <v>0.207419632623401</v>
+        <v>0.2709890975948716</v>
       </c>
       <c r="P20">
-        <v>0.1517829129945491</v>
+        <v>0.2057226383218336</v>
       </c>
       <c r="Q20">
-        <v>574.2374751910299</v>
+        <v>640.8679720506001</v>
       </c>
       <c r="R20">
-        <v>2296.94990076412</v>
+        <v>2563.4718882024</v>
       </c>
       <c r="S20">
-        <v>0.03364019178413607</v>
+        <v>0.04049494902899824</v>
       </c>
       <c r="T20">
-        <v>0.01816564772640129</v>
+        <v>0.02275198401947888</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H21">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I21">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J21">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>10.373874</v>
       </c>
       <c r="O21">
-        <v>0.07996097850688078</v>
+        <v>0.1106840548656022</v>
       </c>
       <c r="P21">
-        <v>0.08776924891462495</v>
+        <v>0.1260394753287366</v>
       </c>
       <c r="Q21">
-        <v>221.370512669663</v>
+        <v>261.759112855905</v>
       </c>
       <c r="R21">
-        <v>1328.223076017978</v>
+        <v>1570.55467713543</v>
       </c>
       <c r="S21">
-        <v>0.01296840910475693</v>
+        <v>0.01653994644022989</v>
       </c>
       <c r="T21">
-        <v>0.0105043790868025</v>
+        <v>0.0139393901998124</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H22">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I22">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J22">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.167099333333335</v>
+        <v>5.189183666666668</v>
       </c>
       <c r="N22">
-        <v>27.501298</v>
+        <v>15.567551</v>
       </c>
       <c r="O22">
-        <v>0.2119777720733184</v>
+        <v>0.1660979947324462</v>
       </c>
       <c r="P22">
-        <v>0.2326776158682164</v>
+        <v>0.1891411019830537</v>
       </c>
       <c r="Q22">
-        <v>586.8566012408844</v>
+        <v>392.8087365529076</v>
       </c>
       <c r="R22">
-        <v>3521.139607445306</v>
+        <v>2356.852419317445</v>
       </c>
       <c r="S22">
-        <v>0.03437945008545831</v>
+        <v>0.0248206658135184</v>
       </c>
       <c r="T22">
-        <v>0.0278472689731072</v>
+        <v>0.02091814184792293</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H23">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I23">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J23">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.5718675</v>
+        <v>2.952392</v>
       </c>
       <c r="N23">
-        <v>5.143735</v>
+        <v>5.904783999999999</v>
       </c>
       <c r="O23">
-        <v>0.05947123761770536</v>
+        <v>0.09450164464483519</v>
       </c>
       <c r="P23">
-        <v>0.04351910940559606</v>
+        <v>0.07174136463287666</v>
       </c>
       <c r="Q23">
-        <v>164.6450381969487</v>
+        <v>223.48898127822</v>
       </c>
       <c r="R23">
-        <v>658.580152787795</v>
+        <v>893.9559251128799</v>
       </c>
       <c r="S23">
-        <v>0.009645296415754168</v>
+        <v>0.01412174628800096</v>
       </c>
       <c r="T23">
-        <v>0.005208444054945536</v>
+        <v>0.007934267200624283</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H24">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I24">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J24">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>6.499784666666668</v>
+        <v>1.999823</v>
       </c>
       <c r="N24">
-        <v>19.499354</v>
+        <v>5.999469</v>
       </c>
       <c r="O24">
-        <v>0.1502994374225154</v>
+        <v>0.06401133809418542</v>
       </c>
       <c r="P24">
-        <v>0.1649763294696261</v>
+        <v>0.07289175914523545</v>
       </c>
       <c r="Q24">
-        <v>416.1012551055897</v>
+        <v>151.3817965252425</v>
       </c>
       <c r="R24">
-        <v>2496.607530633538</v>
+        <v>908.290779151455</v>
       </c>
       <c r="S24">
-        <v>0.0243761973540915</v>
+        <v>0.00956546184480548</v>
       </c>
       <c r="T24">
-        <v>0.01974465916626313</v>
+        <v>0.008061495578477075</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>64.01769849999999</v>
+        <v>75.6975975</v>
       </c>
       <c r="H25">
-        <v>128.035397</v>
+        <v>151.395195</v>
       </c>
       <c r="I25">
-        <v>0.16218422219084</v>
+        <v>0.1494338679615006</v>
       </c>
       <c r="J25">
-        <v>0.1196817702863145</v>
+        <v>0.1105954318157516</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>12.57887933333333</v>
+        <v>9.176183</v>
       </c>
       <c r="N25">
-        <v>37.736638</v>
+        <v>27.528549</v>
       </c>
       <c r="O25">
-        <v>0.2908709417561791</v>
+        <v>0.2937158700680593</v>
       </c>
       <c r="P25">
-        <v>0.3192747833473873</v>
+        <v>0.334463660588264</v>
       </c>
       <c r="Q25">
-        <v>805.2709046292142</v>
+        <v>694.6150073203426</v>
       </c>
       <c r="R25">
-        <v>4831.625427775285</v>
+        <v>4167.690043922055</v>
       </c>
       <c r="S25">
-        <v>0.04717467744664303</v>
+        <v>0.04389109854594765</v>
       </c>
       <c r="T25">
-        <v>0.03821137127879484</v>
+        <v>0.03699015296943604</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H26">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I26">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J26">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.96998</v>
+        <v>8.46616</v>
       </c>
       <c r="N26">
-        <v>17.93996</v>
+        <v>16.93232</v>
       </c>
       <c r="O26">
-        <v>0.207419632623401</v>
+        <v>0.2709890975948716</v>
       </c>
       <c r="P26">
-        <v>0.1517829129945491</v>
+        <v>0.2057226383218336</v>
       </c>
       <c r="Q26">
-        <v>397.5184625192333</v>
+        <v>816.15910792624</v>
       </c>
       <c r="R26">
-        <v>2385.1107751154</v>
+        <v>4896.95464755744</v>
       </c>
       <c r="S26">
-        <v>0.02328757333790047</v>
+        <v>0.05157118613569327</v>
       </c>
       <c r="T26">
-        <v>0.01886287642354619</v>
+        <v>0.04346270945981321</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H27">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I27">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J27">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>10.373874</v>
       </c>
       <c r="O27">
-        <v>0.07996097850688078</v>
+        <v>0.1106840548656022</v>
       </c>
       <c r="P27">
-        <v>0.08776924891462495</v>
+        <v>0.1260394753287366</v>
       </c>
       <c r="Q27">
-        <v>153.2447282620567</v>
+        <v>333.355844506412</v>
       </c>
       <c r="R27">
-        <v>1379.20255435851</v>
+        <v>3000.202600557708</v>
       </c>
       <c r="S27">
-        <v>0.008977439250074099</v>
+        <v>0.02106397654514085</v>
       </c>
       <c r="T27">
-        <v>0.01090755516151869</v>
+        <v>0.02662816859324123</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H28">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I28">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J28">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.167099333333335</v>
+        <v>5.189183666666668</v>
       </c>
       <c r="N28">
-        <v>27.501298</v>
+        <v>15.567551</v>
       </c>
       <c r="O28">
-        <v>0.2119777720733184</v>
+        <v>0.1660979947324462</v>
       </c>
       <c r="P28">
-        <v>0.2326776158682164</v>
+        <v>0.1891411019830537</v>
       </c>
       <c r="Q28">
-        <v>406.2541090111412</v>
+        <v>500.2503510744047</v>
       </c>
       <c r="R28">
-        <v>3656.28698110027</v>
+        <v>4502.253159669643</v>
       </c>
       <c r="S28">
-        <v>0.02379932820595125</v>
+        <v>0.03160965027426436</v>
       </c>
       <c r="T28">
-        <v>0.02891609488879117</v>
+        <v>0.03995955345244034</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H29">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I29">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J29">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.5718675</v>
+        <v>2.952392</v>
       </c>
       <c r="N29">
-        <v>5.143735</v>
+        <v>5.904783999999999</v>
       </c>
       <c r="O29">
-        <v>0.05947123761770536</v>
+        <v>0.09450164464483519</v>
       </c>
       <c r="P29">
-        <v>0.04351910940559606</v>
+        <v>0.07174136463287666</v>
       </c>
       <c r="Q29">
-        <v>113.9762646520042</v>
+        <v>284.618011113488</v>
       </c>
       <c r="R29">
-        <v>683.857587912025</v>
+        <v>1707.708066680928</v>
       </c>
       <c r="S29">
-        <v>0.006676999616678382</v>
+        <v>0.01798434678502789</v>
       </c>
       <c r="T29">
-        <v>0.005408353065473354</v>
+        <v>0.01515668918464532</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H30">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I30">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J30">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>6.499784666666668</v>
+        <v>1.999823</v>
       </c>
       <c r="N30">
-        <v>19.499354</v>
+        <v>5.999469</v>
       </c>
       <c r="O30">
-        <v>0.1502994374225154</v>
+        <v>0.06401133809418542</v>
       </c>
       <c r="P30">
-        <v>0.1649763294696261</v>
+        <v>0.07289175914523545</v>
       </c>
       <c r="Q30">
-        <v>288.0479563387456</v>
+        <v>192.787964755022</v>
       </c>
       <c r="R30">
-        <v>2592.43160704871</v>
+        <v>1735.091682795198</v>
       </c>
       <c r="S30">
-        <v>0.01687453172755804</v>
+        <v>0.01218182082212485</v>
       </c>
       <c r="T30">
-        <v>0.02050249302902466</v>
+        <v>0.01539973128668465</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>44.31653833333333</v>
+        <v>96.402514</v>
       </c>
       <c r="H31">
-        <v>132.949615</v>
+        <v>289.207542</v>
       </c>
       <c r="I31">
-        <v>0.1122727537570288</v>
+        <v>0.190307235949367</v>
       </c>
       <c r="J31">
-        <v>0.124275361774244</v>
+        <v>0.2112684817497815</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>12.57887933333333</v>
+        <v>9.176183</v>
       </c>
       <c r="N31">
-        <v>37.736638</v>
+        <v>27.528549</v>
       </c>
       <c r="O31">
-        <v>0.2908709417561791</v>
+        <v>0.2937158700680593</v>
       </c>
       <c r="P31">
-        <v>0.3192747833473873</v>
+        <v>0.334463660588264</v>
       </c>
       <c r="Q31">
-        <v>557.4523881660411</v>
+        <v>884.6071101240619</v>
       </c>
       <c r="R31">
-        <v>5017.07149349437</v>
+        <v>7961.463991116559</v>
       </c>
       <c r="S31">
-        <v>0.03265688161886656</v>
+        <v>0.05589625538711579</v>
       </c>
       <c r="T31">
-        <v>0.03967798920588993</v>
+        <v>0.07066162977295679</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H32">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I32">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J32">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.96998</v>
+        <v>8.46616</v>
       </c>
       <c r="N32">
-        <v>17.93996</v>
+        <v>16.93232</v>
       </c>
       <c r="O32">
-        <v>0.207419632623401</v>
+        <v>0.2709890975948716</v>
       </c>
       <c r="P32">
-        <v>0.1517829129945491</v>
+        <v>0.2057226383218336</v>
       </c>
       <c r="Q32">
-        <v>657.6698978401465</v>
+        <v>682.12399727168</v>
       </c>
       <c r="R32">
-        <v>3946.01938704088</v>
+        <v>4092.74398363008</v>
       </c>
       <c r="S32">
-        <v>0.03852786077160104</v>
+        <v>0.04310182082057966</v>
       </c>
       <c r="T32">
-        <v>0.03120747130039202</v>
+        <v>0.03632497244846624</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H33">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I33">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J33">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>10.373874</v>
       </c>
       <c r="O33">
-        <v>0.07996097850688078</v>
+        <v>0.1106840548656022</v>
       </c>
       <c r="P33">
-        <v>0.08776924891462495</v>
+        <v>0.1260394753287366</v>
       </c>
       <c r="Q33">
-        <v>253.5339972436413</v>
+        <v>278.609916816784</v>
       </c>
       <c r="R33">
-        <v>2281.805975192772</v>
+        <v>2507.489251351056</v>
       </c>
       <c r="S33">
-        <v>0.01485262223305336</v>
+        <v>0.01760470935123952</v>
       </c>
       <c r="T33">
-        <v>0.01804588054426448</v>
+        <v>0.02225511254416762</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H34">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I34">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J34">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.167099333333335</v>
+        <v>5.189183666666668</v>
       </c>
       <c r="N34">
-        <v>27.501298</v>
+        <v>15.567551</v>
       </c>
       <c r="O34">
-        <v>0.2119777720733184</v>
+        <v>0.1660979947324462</v>
       </c>
       <c r="P34">
-        <v>0.2326776158682164</v>
+        <v>0.1891411019830537</v>
       </c>
       <c r="Q34">
-        <v>672.1224887952716</v>
+        <v>418.0958906143493</v>
       </c>
       <c r="R34">
-        <v>6049.102399157444</v>
+        <v>3762.863015529144</v>
       </c>
       <c r="S34">
-        <v>0.03937452779093191</v>
+        <v>0.02641850196615056</v>
       </c>
       <c r="T34">
-        <v>0.04783990421709571</v>
+        <v>0.03339712816466339</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H35">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I35">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J35">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.5718675</v>
+        <v>2.952392</v>
       </c>
       <c r="N35">
-        <v>5.143735</v>
+        <v>5.904783999999999</v>
       </c>
       <c r="O35">
-        <v>0.05947123761770536</v>
+        <v>0.09450164464483519</v>
       </c>
       <c r="P35">
-        <v>0.04351910940559606</v>
+        <v>0.07174136463287666</v>
       </c>
       <c r="Q35">
-        <v>188.5667343721383</v>
+        <v>237.876136590016</v>
       </c>
       <c r="R35">
-        <v>1131.40040623283</v>
+        <v>1427.256819540096</v>
       </c>
       <c r="S35">
-        <v>0.01104668605314679</v>
+        <v>0.01503083700002277</v>
       </c>
       <c r="T35">
-        <v>0.008947788199601445</v>
+        <v>0.01266755625420168</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H36">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I36">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J36">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>6.499784666666668</v>
+        <v>1.999823</v>
       </c>
       <c r="N36">
-        <v>19.499354</v>
+        <v>5.999469</v>
       </c>
       <c r="O36">
-        <v>0.1502994374225154</v>
+        <v>0.06401133809418542</v>
       </c>
       <c r="P36">
-        <v>0.1649763294696261</v>
+        <v>0.07289175914523545</v>
       </c>
       <c r="Q36">
-        <v>476.5576643102458</v>
+        <v>161.127034995304</v>
       </c>
       <c r="R36">
-        <v>4289.018978792213</v>
+        <v>1450.143314957736</v>
       </c>
       <c r="S36">
-        <v>0.0279178770390481</v>
+        <v>0.01018124068277402</v>
       </c>
       <c r="T36">
-        <v>0.03392011633979031</v>
+        <v>0.01287068435574259</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>73.31899266666666</v>
+        <v>80.57064799999999</v>
       </c>
       <c r="H37">
-        <v>219.956978</v>
+        <v>241.711944</v>
       </c>
       <c r="I37">
-        <v>0.1857483801523923</v>
+        <v>0.1590537080758018</v>
       </c>
       <c r="J37">
-        <v>0.2056059584356031</v>
+        <v>0.1765725578127151</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>12.57887933333333</v>
+        <v>9.176183</v>
       </c>
       <c r="N37">
-        <v>37.736638</v>
+        <v>27.528549</v>
       </c>
       <c r="O37">
-        <v>0.2908709417561791</v>
+        <v>0.2937158700680593</v>
       </c>
       <c r="P37">
-        <v>0.3192747833473873</v>
+        <v>0.334463660588264</v>
       </c>
       <c r="Q37">
-        <v>922.2707615955514</v>
+        <v>739.331010476584</v>
       </c>
       <c r="R37">
-        <v>8300.436854359963</v>
+        <v>6653.979094289256</v>
       </c>
       <c r="S37">
-        <v>0.05402880626461111</v>
+        <v>0.04671659825503523</v>
       </c>
       <c r="T37">
-        <v>0.06564479783445909</v>
+        <v>0.05905710404547356</v>
       </c>
     </row>
   </sheetData>
